--- a/Turma Home Jan2018/1° Sabado/Aula 4/funções texro.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 4/funções texro.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.rosa\Desktop\TeachX.git\trunk\Turma 462 - Outubro 2017\Aula 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80643735\Desktop\TeachX.git\trunk\Turma Home Jan2018\1° Sabado\Aula 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E16072-6907-44D4-A875-6D5BBF3C6266}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{FC6BD954-19EC-4EF1-AD0B-0DB6252B956A}"/>
   </bookViews>
@@ -15,10 +16,16 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -403,13 +410,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -556,7 +563,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
